--- a/12.16 Vendor Product Information Sheet.xlsx
+++ b/12.16 Vendor Product Information Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Downloads\Vendor Welcome Packet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\junk\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1458,9 +1458,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="BG2" sqref="BG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1813,8 +1813,12 @@
       <c r="BI2" s="15"/>
       <c r="BJ2" s="26"/>
       <c r="BK2" s="26"/>
-      <c r="BL2" s="26"/>
-      <c r="BM2" s="26"/>
+      <c r="BL2" s="26">
+        <v>5</v>
+      </c>
+      <c r="BM2" s="26">
+        <v>10</v>
+      </c>
       <c r="BN2" s="23"/>
       <c r="BO2" s="23"/>
       <c r="BP2" s="26"/>
